--- a/xlsx/俄勒冈州_intext.xlsx
+++ b/xlsx/俄勒冈州_intext.xlsx
@@ -15,1179 +15,1182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>俄勒冈州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>俄勒冈州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>俄勒冈州州徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%8B%92%E5%A7%86_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>塞勒姆 (俄勒冈州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>波特兰 (俄勒冈州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BE%B7%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>胡德山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Oregon</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Oregon</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kate_Brown</t>
+  </si>
+  <si>
+    <t>en-Kate Brown</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Oregon</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Oregon</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ted_Wheeler</t>
+  </si>
+  <si>
+    <t>en-Ted Wheeler</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Oregon</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Oregon</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E6%87%B7%E7%99%BB</t>
+  </si>
+  <si>
+    <t>荣·怀登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A4%AB%C2%B7%E9%BB%98%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>杰夫·默克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Oregon</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Oregon</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>太平洋时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
+  </si>
+  <si>
+    <t>UTC-8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%9B%A7%E7%88%BE%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>马卢尔县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国太平洋沿岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱德荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>俄勒冈州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>河口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%90%E6%9C%A8</t>
+  </si>
+  <si>
+    <t>伐木</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>1988年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>印第安语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>哥伦比亚河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>喀斯喀特山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E7%B1%B3%E7%89%B9%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>威拉米特河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>燕麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%93%83%E8%96%AF</t>
+  </si>
+  <si>
+    <t>马铃薯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%91%E9%B1%BC</t>
+  </si>
+  <si>
+    <t>鲑鱼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>火山口湖国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Nike</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E9%81%8B%E5%8B%95%E6%9C%8D%E8%A3%9D%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>美国哥伦比亚运动服装公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉美裔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>福音派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>主流新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>波特兰 (奥勒冈州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%93%A6%E5%88%A9%E6%96%AF_(%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>科瓦利斯 (俄勒冈州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91_(%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>尤金 (俄勒冈州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>达拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%B5%B7%E5%80%AB%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣海伦斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96</t>
+  </si>
+  <si>
+    <t>火山口湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%85%B0%E8%8C%A8%E5%B8%95%E6%96%AF</t>
+  </si>
+  <si>
+    <t>格兰茨帕斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>本德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>俄勒冈大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>俄勒冈州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>波特兰州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>东俄勒冈州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>西俄勒冈州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>南俄勒冈大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>俄勒冈理工学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>波特兰大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>亚利桑那响尾蛇队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>旧金山巨人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>圣地牙哥教士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%AF%AE%E7%90%83%E5%8D%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国家篮球协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%BC%80%E6%8B%93%E8%80%85</t>
+  </si>
+  <si>
+    <t>波特兰开拓者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
+  </si>
+  <si>
+    <t>莱纳斯·鲍林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%8C%96%E5%AD%B8%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>诺贝尔化学奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>诺贝尔和平奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E4%B8%B9%E9%BD%8A%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>乔治·伯纳德·丹齐格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>数学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%A8%81%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>卡尔·威曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E8%89%B2%E2%80%93%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6%E5%87%9D%E8%81%9A</t>
+  </si>
+  <si>
+    <t>玻色–爱因斯坦凝聚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%89%A9%E7%90%86%E5%AD%B8%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>诺贝尔物理学奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>波特兰国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/5%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>5号州际公路俄勒冈州段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/84%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E8%87%B3%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>84号州际公路 (俄勒冈州至犹他州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>101号美国国道俄勒冈州段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E7%9C%81</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%B1%B1%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>富山县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%85%E5%8D%97%E9%81%93</t>
+  </si>
+  <si>
+    <t>全罗南道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>伊拉克库德斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%B8%82</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>杰佛逊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>俄勒冈州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>俄勒冈州州徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%8B%92%E5%A7%86_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>塞勒姆 (俄勒冈州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>波特兰 (俄勒冈州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BE%B7%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>胡德山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Oregon</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Oregon</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kate_Brown</t>
-  </si>
-  <si>
-    <t>en-Kate Brown</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Oregon</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Oregon</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ted_Wheeler</t>
-  </si>
-  <si>
-    <t>en-Ted Wheeler</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Oregon</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Oregon</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E6%87%B7%E7%99%BB</t>
-  </si>
-  <si>
-    <t>榮·懷登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A4%AB%C2%B7%E9%BB%98%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>傑夫·默克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Oregon</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Oregon</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>太平洋时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
-  </si>
-  <si>
-    <t>UTC-8</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
-  </si>
-  <si>
-    <t>UTC-7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%9B%A7%E7%88%BE%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>馬盧爾縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國太平洋沿岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>愛德荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>俄勒冈州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>河口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%90%E6%9C%A8</t>
-  </si>
-  <si>
-    <t>伐木</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>美國共和黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>1988年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>印第安语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>哥伦比亚河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>喀斯喀特山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>高原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8</t>
-  </si>
-  <si>
-    <t>雨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
-  </si>
-  <si>
-    <t>森林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E7%B1%B3%E7%89%B9%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>威拉米特河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>小麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>燕麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%93%83%E8%96%AF</t>
-  </si>
-  <si>
-    <t>马铃薯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%91%E9%B1%BC</t>
-  </si>
-  <si>
-    <t>鲑鱼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>火山口湖国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>哥倫比亞河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Nike</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E9%81%8B%E5%8B%95%E6%9C%8D%E8%A3%9D%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>美國哥倫比亞運動服裝公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉美裔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>福音派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>主流新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>波特蘭 (奧勒岡州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%93%A6%E5%88%A9%E6%96%AF_(%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>科瓦利斯 (俄勒岡州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91_(%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>尤金 (俄勒岡州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>达拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%B5%B7%E5%80%AB%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖海倫斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96</t>
-  </si>
-  <si>
-    <t>火山口湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%85%B0%E8%8C%A8%E5%B8%95%E6%96%AF</t>
-  </si>
-  <si>
-    <t>格兰茨帕斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>本德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>俄勒岡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>俄勒岡州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>波特蘭州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>東俄勒岡州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>西俄勒岡州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>南俄勒岡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>俄勒岡理工學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>波特兰大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>亞利桑那響尾蛇隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>舊金山巨人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E6%95%99%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>聖地牙哥教士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%AF%AE%E7%90%83%E5%8D%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国家篮球协会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%BC%80%E6%8B%93%E8%80%85</t>
-  </si>
-  <si>
-    <t>波特兰开拓者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
-  </si>
-  <si>
-    <t>萊納斯·鮑林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%8C%96%E5%AD%B8%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>諾貝爾化學獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>諾貝爾和平獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E4%B8%B9%E9%BD%8A%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>喬治·伯納德·丹齊格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>數學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%A8%81%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>卡尔·威曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E8%89%B2%E2%80%93%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6%E5%87%9D%E8%81%9A</t>
-  </si>
-  <si>
-    <t>玻色–爱因斯坦凝聚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%89%A9%E7%90%86%E5%AD%B8%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>諾貝爾物理學獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E5%85%B0%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>波特兰国际机场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/5%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>5号州际公路俄勒冈州段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/84%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E8%87%B3%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>84号州际公路 (俄勒冈州至犹他州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>101号美国国道俄勒冈州段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E7%9C%81</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%B1%B1%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>富山縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%85%E5%8D%97%E9%81%93</t>
-  </si>
-  <si>
-    <t>全羅南道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>伊拉克庫德斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%B8%82</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>傑佛遜州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,7 +2028,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -2544,7 +2547,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -2570,13 +2573,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2599,10 +2602,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -2628,10 +2631,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2657,10 +2660,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -2686,10 +2689,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2715,10 +2718,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2744,10 +2747,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2773,10 +2776,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2802,10 +2805,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2831,10 +2834,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2860,10 +2863,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2889,10 +2892,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2918,10 +2921,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2947,10 +2950,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2976,10 +2979,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3005,10 +3008,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3034,10 +3037,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3063,10 +3066,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3092,10 +3095,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3121,10 +3124,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3150,10 +3153,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3179,10 +3182,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3208,10 +3211,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3237,10 +3240,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3266,10 +3269,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3295,10 +3298,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3324,10 +3327,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3353,10 +3356,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3382,10 +3385,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3411,10 +3414,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3440,10 +3443,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3469,10 +3472,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3498,10 +3501,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3527,10 +3530,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3556,10 +3559,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3585,10 +3588,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
         <v>95</v>
-      </c>
-      <c r="F71" t="s">
-        <v>96</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3614,10 +3617,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3643,10 +3646,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3672,10 +3675,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3701,10 +3704,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3730,10 +3733,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>7</v>
@@ -3759,10 +3762,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -3788,10 +3791,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3817,10 +3820,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3846,10 +3849,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3875,10 +3878,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -3904,10 +3907,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3933,10 +3936,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3962,10 +3965,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3991,10 +3994,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4020,10 +4023,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4049,10 +4052,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4078,10 +4081,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4107,10 +4110,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4136,10 +4139,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4165,10 +4168,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4194,10 +4197,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4223,10 +4226,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4252,10 +4255,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4281,10 +4284,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4310,10 +4313,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4339,10 +4342,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4368,10 +4371,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4397,10 +4400,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4426,10 +4429,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4455,10 +4458,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4484,10 +4487,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4513,10 +4516,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4542,10 +4545,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4571,10 +4574,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4600,10 +4603,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4629,10 +4632,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4658,10 +4661,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4687,10 +4690,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4716,10 +4719,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4745,10 +4748,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4774,10 +4777,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4803,10 +4806,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4832,10 +4835,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4861,10 +4864,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4890,10 +4893,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4919,10 +4922,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4948,10 +4951,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4977,10 +4980,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5006,10 +5009,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5035,10 +5038,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5064,10 +5067,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5093,10 +5096,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5122,10 +5125,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5151,10 +5154,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5180,10 +5183,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5209,10 +5212,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5238,10 +5241,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5267,10 +5270,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5296,10 +5299,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5325,10 +5328,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5354,10 +5357,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5383,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5412,10 +5415,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>82</v>
+      </c>
+      <c r="F134" t="s">
         <v>83</v>
-      </c>
-      <c r="F134" t="s">
-        <v>84</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5441,10 +5444,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5470,10 +5473,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5499,10 +5502,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5528,10 +5531,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5557,10 +5560,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5586,10 +5589,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5615,10 +5618,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5644,10 +5647,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5673,10 +5676,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5702,10 +5705,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5731,10 +5734,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5760,10 +5763,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5789,10 +5792,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5818,10 +5821,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5847,10 +5850,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5876,10 +5879,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5905,10 +5908,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5934,10 +5937,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5963,10 +5966,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5992,10 +5995,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6021,10 +6024,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6050,10 +6053,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6079,10 +6082,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>84</v>
+      </c>
+      <c r="F157" t="s">
         <v>85</v>
-      </c>
-      <c r="F157" t="s">
-        <v>86</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6108,10 +6111,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6137,10 +6140,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6166,10 +6169,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6195,10 +6198,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6224,10 +6227,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6253,10 +6256,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6282,10 +6285,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6311,10 +6314,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6340,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6369,10 +6372,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6398,10 +6401,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6427,10 +6430,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6456,10 +6459,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6485,10 +6488,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6514,10 +6517,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6543,10 +6546,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6572,10 +6575,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6601,10 +6604,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>78</v>
+      </c>
+      <c r="F175" t="s">
         <v>79</v>
-      </c>
-      <c r="F175" t="s">
-        <v>80</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -6630,10 +6633,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6659,10 +6662,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6688,10 +6691,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6717,10 +6720,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6746,10 +6749,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6775,10 +6778,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6804,10 +6807,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6833,10 +6836,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6862,10 +6865,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6891,10 +6894,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6920,10 +6923,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6949,10 +6952,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6978,10 +6981,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7007,10 +7010,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7036,10 +7039,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7065,10 +7068,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7094,10 +7097,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7123,10 +7126,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7152,10 +7155,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7181,10 +7184,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7210,10 +7213,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7239,10 +7242,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7268,10 +7271,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7297,18 +7300,76 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>387</v>
+      </c>
+      <c r="F199" t="s">
+        <v>388</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>199</v>
+      </c>
+      <c r="E200" t="s">
         <v>389</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F200" t="s">
         <v>390</v>
       </c>
-      <c r="G199" t="n">
-        <v>1</v>
-      </c>
-      <c r="H199" t="s">
-        <v>4</v>
-      </c>
-      <c r="I199" t="n">
+      <c r="G200" t="n">
+        <v>4</v>
+      </c>
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>389</v>
+      </c>
+      <c r="F201" t="s">
+        <v>391</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" t="n">
         <v>3</v>
       </c>
     </row>
